--- a/Greenwich/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/input.xlsx
+++ b/Greenwich/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/input.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27804"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\staff.gre-ad.gre.ac.uk\USR\Vol2\sc7405y\Documents\WORK IN USE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Greenwich-Huynh-Hoang-Tuan-Anh\Greenwich\COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24\COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1083DB0E-169A-43DA-98BE-AC1DDDF3C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" xr2:uid="{6396A8CF-A37F-4B82-8D8D-981B6D5A2AE7}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,51 +35,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">      id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     dept</t>
-  </si>
-  <si>
-    <t>1      1    Rick     623.30    2012-01-01      IT</t>
-  </si>
-  <si>
-    <t>2      2    Dan      515.20    2013-09-23      Operations</t>
-  </si>
-  <si>
-    <t>3      3    Michelle 611.00    2014-11-15      IT</t>
-  </si>
-  <si>
-    <t>4      4    Ryan     729.00    2014-05-11      HR</t>
-  </si>
-  <si>
-    <t>5     NA    Gary     843.25    2015-03-27      Finance</t>
-  </si>
-  <si>
-    <t>6      6    Nina     578.00    2013-05-21      IT</t>
-  </si>
-  <si>
-    <t>7      7    Simon    632.80    2013-07-30      Operations</t>
-  </si>
-  <si>
-    <t>8      8    Guru     722.50    2014-06-17      Finance</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>start_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -558,8 +569,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,68 +946,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9DB1FA-4AB1-4E48-A093-B232F4E1E800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>623.29999999999995</v>
+      </c>
+      <c r="D2" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>515.20000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41540</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>611</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41958</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>729</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>843.25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42090</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
+      </c>
+      <c r="C7">
+        <v>578</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41415</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
+      </c>
+      <c r="C8">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41485</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
+      </c>
+      <c r="C9">
+        <v>722.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41807</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1163,13 +1276,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787E9A8D-6D08-41B5-A9C1-1D5D4E2866A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787E9A8D-6D08-41B5-A9C1-1D5D4E2866A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125B5F60-8E02-4328-8191-24EB28D98782}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125B5F60-8E02-4328-8191-24EB28D98782}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7e1a0011-bbf0-41bc-aa93-e9276f83f0dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48241841-C989-4637-AD9B-588557CA52B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48241841-C989-4637-AD9B-588557CA52B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>